--- a/OOP2Curs/Semester_3/Lab1/Documents/Лист Microsoft Excel — задание 2.xlsx
+++ b/OOP2Curs/Semester_3/Lab1/Documents/Лист Microsoft Excel — задание 2.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projectsGit\OOP2Curs\Semester_3\Lab1\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C#\OOP2.0\OOP2Curs\Semester_3\Lab1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB350EA-D1D5-4119-AF9D-DA8DDEF981B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
     <sheet name="BlackBox" sheetId="2" r:id="rId2"/>
     <sheet name="WhiteBox" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="37">
   <si>
     <t>№</t>
   </si>
@@ -126,11 +125,26 @@
     <t>Условие проверки типа данных X 
 (double.TryParse((Console.ReadLine()), out x))</t>
   </si>
+  <si>
+    <t>x = -10 y = 10</t>
+  </si>
+  <si>
+    <t>flase</t>
+  </si>
+  <si>
+    <t>x = -0.2 y = -0.2</t>
+  </si>
+  <si>
+    <t>x = 0.2 y = -0.2</t>
+  </si>
+  <si>
+    <t>x = 0.2 y = 0.2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,7 +174,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -196,20 +210,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -249,9 +254,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -709,11 +711,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,10 +727,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -739,12 +741,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -845,22 +847,60 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="A10" s="14">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="A11" s="14">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="A12" s="14">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -874,75 +914,85 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F4E3A4-23BE-43F4-AF65-17C350E59ED4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:16384" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="A2" s="15"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:16384" ht="24" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:16384" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <v>1</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <v>2</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="16">
         <v>3</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="16">
         <v>4</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <v>5</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <v>6</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="16">
         <v>7</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="9"/>
+      <c r="I3" s="16">
+        <v>8</v>
+      </c>
+      <c r="J3" s="16">
+        <v>9</v>
+      </c>
+      <c r="K3" s="16">
+        <v>10</v>
+      </c>
+      <c r="L3" s="16">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:16384" ht="24" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="9"/>
+    <row r="4" spans="1:16384" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
     </row>
     <row r="5" spans="1:16384" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -963,9 +1013,12 @@
         <v>6</v>
       </c>
       <c r="H5" s="4"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="9"/>
+      <c r="I5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:16384" s="7" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -980,10 +1033,10 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="6"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -17370,9 +17423,16 @@
       <c r="H7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="9"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:16384" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -17393,9 +17453,12 @@
       <c r="H8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="9"/>
+      <c r="I8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:16384" ht="24" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -17410,9 +17473,10 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="9"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:16384" ht="24" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -17427,9 +17491,16 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="9"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:16384" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
@@ -17465,47 +17536,57 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="16">
         <v>1</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="16">
         <v>2</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="16">
         <v>3</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="16">
         <v>4</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="16">
         <v>5</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="16">
         <v>6</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="16">
         <v>7</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="I14" s="16">
+        <v>8</v>
+      </c>
+      <c r="J14" s="16">
+        <v>9</v>
+      </c>
+      <c r="K14" s="16">
+        <v>10</v>
+      </c>
+      <c r="L14" s="16">
+        <v>11</v>
+      </c>
     </row>
-    <row r="15" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+    <row r="15" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
     </row>
     <row r="16" spans="1:16384" ht="24" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -17522,11 +17603,12 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="9"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
@@ -17541,11 +17623,18 @@
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="9"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="18" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
@@ -17562,11 +17651,14 @@
       <c r="H18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="9"/>
+      <c r="I18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="6"/>
       <c r="C19" s="8"/>
@@ -17579,7 +17671,7 @@
       <c r="J19" s="8"/>
       <c r="K19" s="9"/>
     </row>
-    <row r="20" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -17592,7 +17684,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="9"/>
     </row>
-    <row r="21" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -17605,7 +17697,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="9"/>
     </row>
-    <row r="22" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -17618,7 +17710,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="9"/>
     </row>
-    <row r="23" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -17631,7 +17723,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -17645,7 +17737,19 @@
       <c r="K24" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="28">
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="K14:K15"/>
     <mergeCell ref="F14:F15"/>
@@ -17662,24 +17766,17 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F7F918-CE6B-4578-AF14-B6DCE6013302}">
-  <dimension ref="A1:L20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17687,66 +17784,77 @@
     <col min="1" max="2" width="50.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17">
+      <c r="B1" s="15"/>
+      <c r="C1" s="16">
         <v>1</v>
       </c>
-      <c r="D1" s="17">
+      <c r="D1" s="16">
         <v>2</v>
       </c>
-      <c r="E1" s="17">
+      <c r="E1" s="16">
         <v>3</v>
       </c>
-      <c r="F1" s="17">
+      <c r="F1" s="16">
         <v>4</v>
       </c>
-      <c r="G1" s="17">
+      <c r="G1" s="16">
         <v>5</v>
       </c>
-      <c r="H1" s="17">
+      <c r="H1" s="16">
         <v>6</v>
       </c>
-      <c r="I1" s="17">
+      <c r="I1" s="16">
         <v>7</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="J1" s="16">
+        <v>8</v>
+      </c>
+      <c r="K1" s="16">
+        <v>9</v>
+      </c>
+      <c r="L1" s="16">
+        <v>10</v>
+      </c>
+      <c r="M1" s="16">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
     </row>
-    <row r="4" spans="1:12" ht="24" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -17763,12 +17871,19 @@
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" ht="24" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+    <row r="5" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
       <c r="B5" s="11" t="s">
         <v>13</v>
       </c>
@@ -17785,12 +17900,15 @@
       <c r="I5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="J5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="24" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -17809,12 +17927,19 @@
         <v>6</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+    <row r="7" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
       <c r="B7" s="11" t="s">
         <v>13</v>
       </c>
@@ -17829,12 +17954,15 @@
       <c r="I7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="J7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="24" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -17857,12 +17985,21 @@
       <c r="I8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="J8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+    <row r="9" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
       <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
@@ -17875,12 +18012,13 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:12" ht="24" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -17903,12 +18041,21 @@
       <c r="I10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
+      <c r="J10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+    <row r="11" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
       <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
@@ -17921,11 +18068,12 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="8"/>
@@ -17939,7 +18087,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="8"/>
@@ -17953,7 +18101,7 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="8"/>
@@ -17967,7 +18115,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="6"/>
@@ -17981,7 +18129,7 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="12"/>
       <c r="C16" s="8"/>
@@ -18052,12 +18200,8 @@
       <c r="L20" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="K1:K3"/>
+  <mergeCells count="17">
+    <mergeCell ref="M1:M3"/>
     <mergeCell ref="L1:L3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="C1:C3"/>
@@ -18069,6 +18213,11 @@
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="B1:B3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
